--- a/resources/External/data for Concrete Properties Ontology.xlsx
+++ b/resources/External/data for Concrete Properties Ontology.xlsx
@@ -17,47 +17,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>hasMaterialProperty</t>
   </si>
   <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>MassDensity</t>
+  </si>
+  <si>
+    <t>kilogramPerCubicmetre</t>
+  </si>
+  <si>
+    <t>SpecificHeat</t>
+  </si>
+  <si>
+    <t>joulePerKelvinKilogram</t>
+  </si>
+  <si>
+    <t>ThermalConductivity</t>
+  </si>
+  <si>
+    <t>wattPerMetreKelvin</t>
+  </si>
+  <si>
+    <t>ThermalExpansionCoefficient</t>
+  </si>
+  <si>
+    <t>inverseOfKelvin</t>
+  </si>
+  <si>
+    <t>TensileStrength</t>
+  </si>
+  <si>
+    <t>megapascal</t>
+  </si>
+  <si>
+    <t>ModulusOfElasticity</t>
+  </si>
+  <si>
+    <t>gigapascal</t>
+  </si>
+  <si>
+    <t>hasComponentQuantity</t>
+  </si>
+  <si>
     <t>DefaultConcrete</t>
   </si>
   <si>
     <t>BridgeConcrete</t>
   </si>
   <si>
-    <t>MassDensity</t>
-  </si>
-  <si>
-    <t>SpecificHeat</t>
-  </si>
-  <si>
-    <t>ThermalConductivity</t>
-  </si>
-  <si>
-    <t>ThermalExpansionCoefficient</t>
-  </si>
-  <si>
-    <t>TensileStrength</t>
-  </si>
-  <si>
-    <t>ModulusOfElasticity</t>
-  </si>
-  <si>
-    <t>hasComponentQuantity</t>
-  </si>
-  <si>
     <t>Units</t>
   </si>
   <si>
     <t>WaterQuantity</t>
   </si>
   <si>
-    <t>kilogramPerCubicmetre</t>
-  </si>
-  <si>
     <t>CoarseAggregateQuantity</t>
   </si>
   <si>
@@ -113,15 +131,6 @@
   </si>
   <si>
     <t>Granite</t>
-  </si>
-  <si>
-    <t>joulePerKelvinKilogram</t>
-  </si>
-  <si>
-    <t>wattPerMetreKelvin</t>
-  </si>
-  <si>
-    <t>inverseOfKelvin</t>
   </si>
 </sst>
 </file>
@@ -129,7 +138,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,12 +156,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -211,10 +214,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -559,38 +562,38 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
@@ -598,45 +601,45 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>20</v>
-      </c>
       <c r="E2" s="12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="4">
         <v>1000</v>
@@ -674,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4">
         <v>4180</v>
@@ -709,10 +712,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C5" s="13">
         <v>0.6</v>
@@ -747,10 +750,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -791,42 +794,42 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -857,16 +860,16 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -875,7 +878,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4">
         <v>150</v>
@@ -884,7 +887,7 @@
         <v>145</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -893,7 +896,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4">
         <v>700</v>
@@ -902,7 +905,7 @@
         <v>640</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -911,7 +914,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4">
         <v>1200</v>
@@ -920,7 +923,7 @@
         <v>1290</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -929,7 +932,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>350</v>
@@ -938,7 +941,7 @@
         <v>360</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -948,10 +951,10 @@
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2"/>
       <c r="B6" s="4">
-        <f>sum(B2:B5)</f>
+        <f>SUM(B2:B5)</f>
       </c>
       <c r="C6" s="4">
-        <f>sum(C2:C5)</f>
+        <f>SUM(C2:C5)</f>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
@@ -980,57 +983,67 @@
     <col min="3" max="3" style="3" width="23.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
   </sheetData>
